--- a/biology/Médecine/Jean-Baptiste_Feuvrier/Jean-Baptiste_Feuvrier.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Feuvrier/Jean-Baptiste_Feuvrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Feuvrier dit Joannès, né à Saulx (Haute-Saône), le 6 octobre 1842 où il est mort le 29 novembre 1926, est un médecin militaire, et écrivain français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mission sept ans au Monténégro à partir de 1873, en Tunisie en 1881[2] et en Perse en 1889.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mission sept ans au Monténégro à partir de 1873, en Tunisie en 1881 et en Perse en 1889.
 Il fut le médecin de Nicolas 1er de Monténégro et du chah de Perse, Nasseredin Shah
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a publié de nombreux travaux scientifiques et littéraires, dont en 1877 Grammaire de la langue serbo-croate et en 1900 Trois ans à la cour de Perse (ouvrage couronné du prix Montyon par l'Académie française, première éd. en 1900, second éd. en 1906)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a publié de nombreux travaux scientifiques et littéraires, dont en 1877 Grammaire de la langue serbo-croate et en 1900 Trois ans à la cour de Perse (ouvrage couronné du prix Montyon par l'Académie française, première éd. en 1900, second éd. en 1906).
 </t>
         </is>
       </c>
